--- a/Organizacional/05/PTL-Auditoria.xlsx
+++ b/Organizacional/05/PTL-Auditoria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="164">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -149,9 +149,6 @@
     <t>¿Se tiene un cronograma de actividades?</t>
   </si>
   <si>
-    <t>¿Se genero una estimación el proyecto?</t>
-  </si>
-  <si>
     <t>¿Se encuentran definidos los equipos de trabajo por parte del cliente?</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
     <t>¡Se tiene definido un costo de venta del proyecto?</t>
   </si>
   <si>
-    <t>¿Se tiene documentado la descripción del producto?</t>
-  </si>
-  <si>
     <t>¿Se describe la problemática a solucionar?</t>
   </si>
   <si>
@@ -440,12 +434,6 @@
     <t>¿Se tiene documentado lo que se encuentra fuera del alcance?</t>
   </si>
   <si>
-    <t>¿Se especifican todos los datos les proyecto?</t>
-  </si>
-  <si>
-    <t>¿Se tiene definido una estrategia?</t>
-  </si>
-  <si>
     <t>¿Se encuentra definido el equipo de Bisoltec?</t>
   </si>
   <si>
@@ -555,6 +543,15 @@
   </si>
   <si>
     <t>¿El contenido de la línea base se ha generado de acuerdo a lo planeado?</t>
+  </si>
+  <si>
+    <t>¿Se tiene documentada la descripción del producto?</t>
+  </si>
+  <si>
+    <t>¿Se generó una estimación el proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se tiene definida una estrategia?</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1384,14 +1380,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114100864"/>
-        <c:axId val="117335168"/>
+        <c:axId val="85219968"/>
+        <c:axId val="88133632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114100864"/>
+        <c:axId val="85219968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,14 +1427,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117335168"/>
+        <c:crossAx val="88133632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117335168"/>
+        <c:axId val="88133632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1489,7 +1484,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114100864"/>
+        <c:crossAx val="85219968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1531,7 +1526,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1572,7 +1567,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1663,14 +1657,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="65846656"/>
-        <c:axId val="65852544"/>
+        <c:axId val="108572032"/>
+        <c:axId val="109422080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65846656"/>
+        <c:axId val="108572032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,14 +1704,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65852544"/>
+        <c:crossAx val="109422080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65852544"/>
+        <c:axId val="109422080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1768,7 +1761,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65846656"/>
+        <c:crossAx val="108572032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1810,7 +1803,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1846,7 +1839,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1913,14 +1905,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="73938048"/>
-        <c:axId val="73939584"/>
+        <c:axId val="61101568"/>
+        <c:axId val="61103104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73938048"/>
+        <c:axId val="61101568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +1952,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73939584"/>
+        <c:crossAx val="61103104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73939584"/>
+        <c:axId val="61103104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2018,7 +2009,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73938048"/>
+        <c:crossAx val="61101568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2060,7 +2051,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2096,7 +2087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2163,14 +2153,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="73955968"/>
-        <c:axId val="73961856"/>
+        <c:axId val="61115008"/>
+        <c:axId val="61116800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73955968"/>
+        <c:axId val="61115008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,14 +2200,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73961856"/>
+        <c:crossAx val="61116800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73961856"/>
+        <c:axId val="61116800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2268,7 +2257,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73955968"/>
+        <c:crossAx val="61115008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2310,7 +2299,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2969,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -3009,7 +2998,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C6" s="76" t="s">
         <v>2</v>
@@ -3020,7 +3009,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="79" t="s">
         <v>3</v>
@@ -3055,7 +3044,7 @@
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="B12" s="71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -3144,7 +3133,7 @@
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -3208,60 +3197,60 @@
         <v>Plan de proyecto</v>
       </c>
       <c r="C25" s="9">
-        <f>COUNTA(Productos!D48:D63)</f>
+        <f>COUNTA(Productos!D48:D62)</f>
         <v>0</v>
       </c>
       <c r="D25" s="10" t="e">
-        <f>COUNTIF((Productos!D48:D63),"x")/(COUNTIF((Productos!D48:D63),"x")+COUNTIF((Productos!E48:E63),"x"))</f>
+        <f>COUNTIF((Productos!D48:D62),"x")/(COUNTIF((Productos!D48:D62),"x")+COUNTIF((Productos!E48:E62),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1">
       <c r="B26" s="8" t="str">
-        <f>Productos!B65</f>
+        <f>Productos!B64</f>
         <v>Plan de Pruebas</v>
       </c>
       <c r="C26" s="9">
-        <f>COUNTA(Productos!D66:D71)</f>
+        <f>COUNTA(Productos!D65:D70)</f>
         <v>0</v>
       </c>
       <c r="D26" s="10" t="e">
-        <f>COUNTIF((Productos!D66:D71),"x")/(COUNTIF((Productos!D66:D71),"x")+COUNTIF((Productos!E66:E71),"x"))</f>
+        <f>COUNTIF((Productos!D65:D70),"x")/(COUNTIF((Productos!D65:D70),"x")+COUNTIF((Productos!E65:E70),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1">
       <c r="B27" s="8" t="str">
-        <f>Productos!B73</f>
+        <f>Productos!B72</f>
         <v>Carta de Aceptación</v>
       </c>
       <c r="C27" s="9">
-        <f>COUNTA(Productos!D74:D77)</f>
+        <f>COUNTA(Productos!D73:D76)</f>
         <v>0</v>
       </c>
       <c r="D27" s="10" t="e">
-        <f>COUNTIF((Productos!D74:D77),"x")/(COUNTIF((Productos!D74:D77),"x")+COUNTIF((Productos!E74:E77),"x"))</f>
+        <f>COUNTIF((Productos!D73:D76),"x")/(COUNTIF((Productos!D73:D76),"x")+COUNTIF((Productos!E73:E76),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="16.5" customHeight="1">
       <c r="B28" s="8" t="str">
-        <f>Productos!B79</f>
+        <f>Productos!B78</f>
         <v>Reporte de Monitoreo</v>
       </c>
       <c r="C28" s="9">
-        <f>COUNTA(Productos!D80:D86)</f>
+        <f>COUNTA(Productos!D79:D85)</f>
         <v>0</v>
       </c>
       <c r="D28" s="10" t="e">
-        <f>COUNTIF((Productos!D80:D86),"x")/(COUNTIF((Productos!D80:D86),"x")+COUNTIF((Productos!E80:E86),"x"))</f>
+        <f>COUNTIF((Productos!D79:D85),"x")/(COUNTIF((Productos!D79:D85),"x")+COUNTIF((Productos!E79:E85),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="19.5" customHeight="1"/>
     <row r="30" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="B30" s="72" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
@@ -3417,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3509,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -3535,7 +3524,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -3548,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -3558,7 +3547,7 @@
     <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
       <c r="B13" s="86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="87"/>
       <c r="D13" s="84"/>
@@ -3571,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -3584,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -3597,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -3610,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -3623,7 +3612,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -3636,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -3649,7 +3638,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -3659,7 +3648,7 @@
     <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
       <c r="B22" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="87"/>
       <c r="D22" s="84"/>
@@ -3672,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -3685,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -3698,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -3711,7 +3700,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -3724,7 +3713,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -3737,7 +3726,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -3750,7 +3739,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -3763,7 +3752,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -3773,7 +3762,7 @@
     <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
       <c r="B32" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="85"/>
       <c r="D32" s="19"/>
@@ -3786,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -3799,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -3812,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -3825,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -3835,7 +3824,7 @@
     <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="38" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
       <c r="B38" s="85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="85"/>
       <c r="D38" s="85"/>
@@ -3848,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -3861,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -3874,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -3887,7 +3876,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -3900,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -3948,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G71"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4007,7 +3996,7 @@
     <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="28"/>
       <c r="B5" s="84" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
@@ -4021,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
@@ -4035,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
@@ -4049,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
@@ -4063,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
@@ -4077,7 +4066,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
@@ -4091,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
@@ -4105,7 +4094,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
@@ -4119,7 +4108,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
@@ -4133,7 +4122,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
@@ -4147,7 +4136,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
@@ -4161,7 +4150,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
@@ -4194,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
@@ -4208,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
@@ -4222,7 +4211,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
@@ -4236,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
@@ -4250,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
@@ -4264,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
@@ -4278,7 +4267,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
@@ -4292,7 +4281,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
@@ -4306,7 +4295,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
@@ -4320,7 +4309,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
@@ -4334,7 +4323,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
@@ -4348,7 +4337,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="39"/>
@@ -4362,7 +4351,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="39"/>
@@ -4381,7 +4370,7 @@
     <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="43"/>
       <c r="B33" s="84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="84"/>
       <c r="D33" s="84"/>
@@ -4409,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -4423,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -4437,7 +4426,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -4451,7 +4440,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -4465,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -4479,7 +4468,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -4521,7 +4510,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -4535,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -4549,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -4582,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -4596,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -4610,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -4624,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -4634,11 +4623,11 @@
     <row r="52" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A52" s="32"/>
       <c r="B52" s="46">
-        <f t="shared" ref="B52:B63" si="3">+B51+1</f>
+        <f t="shared" ref="B52:B62" si="3">+B51+1</f>
         <v>5</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -4652,7 +4641,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -4666,7 +4655,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -4694,7 +4683,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -4708,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
@@ -4722,7 +4711,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -4787,45 +4776,45 @@
     </row>
     <row r="63" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A63" s="32"/>
-      <c r="B63" s="46">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
-    </row>
-    <row r="64" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A64" s="32"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-    </row>
-    <row r="65" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A65" s="43"/>
-      <c r="B65" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+    </row>
+    <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A64" s="43"/>
+      <c r="B64" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+    </row>
+    <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="A65" s="32"/>
+      <c r="B65" s="48">
+        <v>1</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="23"/>
     </row>
     <row r="66" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A66" s="32"/>
       <c r="B66" s="48">
-        <v>1</v>
+        <f>B65+1</f>
+        <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
@@ -4835,11 +4824,11 @@
     <row r="67" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A67" s="32"/>
       <c r="B67" s="48">
-        <f>B66+1</f>
-        <v>2</v>
+        <f t="shared" ref="B67:B70" si="4">B66+1</f>
+        <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -4849,11 +4838,11 @@
     <row r="68" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A68" s="32"/>
       <c r="B68" s="48">
-        <f t="shared" ref="B68:B71" si="4">B67+1</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
@@ -4864,10 +4853,10 @@
       <c r="A69" s="32"/>
       <c r="B69" s="48">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
@@ -4878,10 +4867,10 @@
       <c r="A70" s="32"/>
       <c r="B70" s="48">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
@@ -4890,45 +4879,45 @@
     </row>
     <row r="71" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A71" s="32"/>
-      <c r="B71" s="48">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23"/>
-    </row>
-    <row r="72" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A72" s="32"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-    </row>
-    <row r="73" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A73" s="43"/>
-      <c r="B73" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+    </row>
+    <row r="72" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A72" s="43"/>
+      <c r="B72" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+    </row>
+    <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="A73" s="32"/>
+      <c r="B73" s="48">
+        <v>1</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="23"/>
     </row>
     <row r="74" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A74" s="32"/>
       <c r="B74" s="48">
-        <v>1</v>
+        <f>B73+1</f>
+        <v>2</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -4938,11 +4927,11 @@
     <row r="75" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A75" s="32"/>
       <c r="B75" s="48">
-        <f>B74+1</f>
-        <v>2</v>
+        <f t="shared" ref="B75:B76" si="5">B74+1</f>
+        <v>3</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -4952,11 +4941,11 @@
     <row r="76" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A76" s="32"/>
       <c r="B76" s="48">
-        <f t="shared" ref="B76:B77" si="5">B75+1</f>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -4965,44 +4954,43 @@
     </row>
     <row r="77" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A77" s="32"/>
-      <c r="B77" s="48">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="23"/>
-    </row>
-    <row r="78" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A78" s="32"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-    </row>
-    <row r="79" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A79" s="43"/>
-      <c r="B79" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+    </row>
+    <row r="78" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A78" s="43"/>
+      <c r="B78" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+    </row>
+    <row r="79" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="B79" s="46">
+        <v>1</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="23"/>
     </row>
     <row r="80" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="B80" s="46">
-        <v>1</v>
+        <f>B79+1</f>
+        <v>2</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
@@ -5011,11 +4999,11 @@
     </row>
     <row r="81" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B81" s="46">
-        <f>B80+1</f>
-        <v>2</v>
+        <f t="shared" ref="B81:B85" si="6">B80+1</f>
+        <v>3</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
@@ -5024,8 +5012,8 @@
     </row>
     <row r="82" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B82" s="46">
-        <f t="shared" ref="B82:B86" si="6">B81+1</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C82" s="25" t="s">
         <v>41</v>
@@ -5038,7 +5026,7 @@
     <row r="83" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B83" s="46">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" s="25" t="s">
         <v>42</v>
@@ -5051,7 +5039,7 @@
     <row r="84" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B84" s="46">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" s="25" t="s">
         <v>43</v>
@@ -5064,7 +5052,7 @@
     <row r="85" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B85" s="46">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" s="25" t="s">
         <v>44</v>
@@ -5074,36 +5062,23 @@
       <c r="F85" s="22"/>
       <c r="G85" s="23"/>
     </row>
-    <row r="86" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B86" s="46">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="C87" s="31"/>
+    <row r="86" spans="2:7">
+      <c r="C86" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -5117,7 +5092,7 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B3:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C87">
+  <conditionalFormatting sqref="C86">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!,TRUE,FALSE)</formula>
     </cfRule>
@@ -5133,7 +5108,7 @@
   <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5191,7 +5166,7 @@
     </row>
     <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="88"/>
@@ -5209,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
@@ -5229,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
@@ -5249,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
@@ -5278,7 +5253,7 @@
     </row>
     <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="B10" s="84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="84"/>
@@ -5296,7 +5271,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
@@ -5316,7 +5291,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
@@ -5336,7 +5311,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
@@ -5356,7 +5331,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
@@ -5385,7 +5360,7 @@
     </row>
     <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="B16" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
@@ -5403,7 +5378,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
@@ -5497,7 +5472,7 @@
     </row>
     <row r="5" spans="2:7" ht="15.75">
       <c r="B5" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="88"/>
@@ -5510,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="62"/>
@@ -5522,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="61"/>
       <c r="E7" s="62"/>
@@ -5534,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="62"/>
@@ -5546,7 +5521,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="62"/>
@@ -5563,7 +5538,7 @@
     </row>
     <row r="11" spans="2:7" ht="13.15" customHeight="1">
       <c r="B11" s="84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="89"/>
@@ -5576,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
@@ -5588,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
@@ -5600,7 +5575,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
@@ -5612,7 +5587,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
@@ -5624,7 +5599,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -5636,7 +5611,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="67"/>
@@ -5649,7 +5624,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="67"/>
       <c r="E18" s="67"/>
@@ -5662,7 +5637,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
@@ -5679,7 +5654,7 @@
     </row>
     <row r="21" spans="2:7" ht="13.15" customHeight="1">
       <c r="B21" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
@@ -5692,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
@@ -5705,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -5718,7 +5693,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -5731,7 +5706,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -5744,7 +5719,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>

--- a/Organizacional/05/PTL-Auditoria.xlsx
+++ b/Organizacional/05/PTL-Auditoria.xlsx
@@ -134,9 +134,6 @@
     <t>Estimación</t>
   </si>
   <si>
-    <t>¿La propuesta corresponde al cliente auditado?</t>
-  </si>
-  <si>
     <t>¿Se tienen definidos los requerimientos?</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
     <t>¿Se tiene un cronograma de actividades?</t>
   </si>
   <si>
+    <t>¿Se genero una estimación el proyecto?</t>
+  </si>
+  <si>
     <t>¿Se encuentran definidos los equipos de trabajo por parte del cliente?</t>
   </si>
   <si>
@@ -413,6 +413,9 @@
     <t>¡Se tiene definido un costo de venta del proyecto?</t>
   </si>
   <si>
+    <t>¿Se tiene documentado la descripción del producto?</t>
+  </si>
+  <si>
     <t>¿Se describe la problemática a solucionar?</t>
   </si>
   <si>
@@ -434,6 +437,12 @@
     <t>¿Se tiene documentado lo que se encuentra fuera del alcance?</t>
   </si>
   <si>
+    <t>¿Se especifican todos los datos les proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se tiene definido una estrategia?</t>
+  </si>
+  <si>
     <t>¿Se encuentra definido el equipo de Bisoltec?</t>
   </si>
   <si>
@@ -543,15 +552,6 @@
   </si>
   <si>
     <t>¿El contenido de la línea base se ha generado de acuerdo a lo planeado?</t>
-  </si>
-  <si>
-    <t>¿Se tiene documentada la descripción del producto?</t>
-  </si>
-  <si>
-    <t>¿Se generó una estimación el proyecto?</t>
-  </si>
-  <si>
-    <t>¿Se tiene definida una estrategia?</t>
   </si>
 </sst>
 </file>
@@ -1207,22 +1207,22 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,11 +1382,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="85219968"/>
-        <c:axId val="88133632"/>
+        <c:axId val="120206464"/>
+        <c:axId val="120208000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85219968"/>
+        <c:axId val="120206464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,14 +1427,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88133632"/>
+        <c:crossAx val="120208000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88133632"/>
+        <c:axId val="120208000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1484,7 +1484,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85219968"/>
+        <c:crossAx val="120206464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1526,7 +1526,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1659,11 +1659,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="108572032"/>
-        <c:axId val="109422080"/>
+        <c:axId val="120240768"/>
+        <c:axId val="120533376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108572032"/>
+        <c:axId val="120240768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,14 +1704,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109422080"/>
+        <c:crossAx val="120533376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109422080"/>
+        <c:axId val="120533376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1761,7 +1761,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108572032"/>
+        <c:crossAx val="120240768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1803,7 +1803,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1907,11 +1907,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="61101568"/>
-        <c:axId val="61103104"/>
+        <c:axId val="120566144"/>
+        <c:axId val="120567680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61101568"/>
+        <c:axId val="120566144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,14 +1952,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61103104"/>
+        <c:crossAx val="120567680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61103104"/>
+        <c:axId val="120567680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2009,7 +2009,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61101568"/>
+        <c:crossAx val="120566144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2051,7 +2051,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2155,11 +2155,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="61115008"/>
-        <c:axId val="61116800"/>
+        <c:axId val="120096640"/>
+        <c:axId val="120098176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61115008"/>
+        <c:axId val="120096640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,14 +2200,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61116800"/>
+        <c:crossAx val="120098176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61116800"/>
+        <c:axId val="120098176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2257,7 +2257,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61115008"/>
+        <c:crossAx val="120096640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2299,7 +2299,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2948,7 +2948,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2958,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="76" t="s">
         <v>2</v>
@@ -3044,7 +3044,7 @@
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="B12" s="71" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -3133,7 +3133,7 @@
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -3183,25 +3183,25 @@
         <v>Propuesta</v>
       </c>
       <c r="C24" s="9">
-        <f>COUNTA(Productos!D34:D45)</f>
+        <f>COUNTA(Productos!D34:D44)</f>
         <v>0</v>
       </c>
       <c r="D24" s="10" t="e">
-        <f>COUNTIF((Productos!D34:D45),"x")/(COUNTIF((Productos!D34:D45),"x")+COUNTIF((Productos!E34:E45),"x"))</f>
+        <f>COUNTIF((Productos!D34:D44),"x")/(COUNTIF((Productos!D34:D44),"x")+COUNTIF((Productos!E34:E44),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1">
       <c r="B25" s="8" t="str">
-        <f>Productos!B47</f>
+        <f>Productos!B46</f>
         <v>Plan de proyecto</v>
       </c>
       <c r="C25" s="9">
-        <f>COUNTA(Productos!D48:D62)</f>
+        <f>COUNTA(Productos!D47:D62)</f>
         <v>0</v>
       </c>
       <c r="D25" s="10" t="e">
-        <f>COUNTIF((Productos!D48:D62),"x")/(COUNTIF((Productos!D48:D62),"x")+COUNTIF((Productos!E48:E62),"x"))</f>
+        <f>COUNTIF((Productos!D47:D62),"x")/(COUNTIF((Productos!D47:D62),"x")+COUNTIF((Productos!E47:E62),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
     <row r="29" spans="2:8" ht="19.5" customHeight="1"/>
     <row r="30" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="B30" s="72" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
@@ -3407,7 +3407,7 @@
   <dimension ref="B1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3430,22 +3430,22 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="53" t="s">
         <v>16</v>
       </c>
@@ -3455,17 +3455,17 @@
       <c r="F4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B6" s="20">
@@ -3546,14 +3546,14 @@
     </row>
     <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
     </row>
     <row r="14" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B14" s="20">
@@ -3638,7 +3638,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -3647,14 +3647,14 @@
     </row>
     <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B23" s="20">
@@ -3761,10 +3761,10 @@
     </row>
     <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="85"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -3788,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -3814,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -3823,14 +3823,14 @@
     </row>
     <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="38" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
     </row>
     <row r="39" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
       <c r="B39" s="20">
@@ -3889,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -3902,6 +3902,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
@@ -3912,12 +3918,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:F30">
     <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
@@ -3939,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3965,23 +3965,23 @@
     </row>
     <row r="3" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="34"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="53" t="s">
         <v>16</v>
       </c>
@@ -3991,18 +3991,18 @@
       <c r="F4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="28"/>
-      <c r="B5" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A6" s="32"/>
@@ -4052,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
@@ -4094,7 +4094,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
@@ -4122,7 +4122,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
@@ -4168,14 +4168,14 @@
     </row>
     <row r="18" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="43"/>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A19" s="32"/>
@@ -4183,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
@@ -4197,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
@@ -4211,7 +4211,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
@@ -4225,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
@@ -4239,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
@@ -4253,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
@@ -4337,7 +4337,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="39"/>
@@ -4369,14 +4369,14 @@
     </row>
     <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A34" s="32"/>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -4398,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -4408,11 +4408,11 @@
     <row r="36" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A36" s="32"/>
       <c r="B36" s="46">
-        <f t="shared" ref="B36:B45" si="2">+B35+1</f>
+        <f t="shared" ref="B36:B44" si="2">+B35+1</f>
         <v>3</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -4426,7 +4426,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -4440,7 +4440,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -4453,8 +4453,8 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>120</v>
+      <c r="C39" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -4467,8 +4467,8 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>121</v>
+      <c r="C40" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -4495,8 +4495,8 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>26</v>
+      <c r="C42" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -4509,8 +4509,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>154</v>
+      <c r="C43" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -4523,55 +4523,55 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>122</v>
+      <c r="C44" s="42" t="s">
+        <v>124</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="45" spans="1:7" s="33" customFormat="1" ht="19.5" customHeight="1">
       <c r="A45" s="32"/>
-      <c r="B45" s="46">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="1:7" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-    </row>
-    <row r="47" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+    </row>
+    <row r="46" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A46" s="43"/>
+      <c r="B46" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+    </row>
+    <row r="47" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="A47" s="32"/>
+      <c r="B47" s="46">
+        <v>1</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A48" s="32"/>
       <c r="B48" s="46">
-        <v>1</v>
+        <f>+B47+1</f>
+        <v>2</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -4582,10 +4582,10 @@
       <c r="A49" s="32"/>
       <c r="B49" s="46">
         <f>+B48+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -4596,10 +4596,10 @@
       <c r="A50" s="32"/>
       <c r="B50" s="46">
         <f>+B49+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -4609,11 +4609,11 @@
     <row r="51" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A51" s="32"/>
       <c r="B51" s="46">
-        <f>+B50+1</f>
-        <v>4</v>
+        <f t="shared" ref="B51:B62" si="3">+B50+1</f>
+        <v>5</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -4623,11 +4623,11 @@
     <row r="52" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A52" s="32"/>
       <c r="B52" s="46">
-        <f t="shared" ref="B52:B62" si="3">+B51+1</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -4638,10 +4638,10 @@
       <c r="A53" s="32"/>
       <c r="B53" s="46">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -4652,7 +4652,7 @@
       <c r="A54" s="32"/>
       <c r="B54" s="46">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>29</v>
@@ -4666,7 +4666,7 @@
       <c r="A55" s="32"/>
       <c r="B55" s="46">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>30</v>
@@ -4680,7 +4680,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="46">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>32</v>
@@ -4694,7 +4694,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="46">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>31</v>
@@ -4708,7 +4708,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="46">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>33</v>
@@ -4722,7 +4722,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="46">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>34</v>
@@ -4736,7 +4736,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="46">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>35</v>
@@ -4750,7 +4750,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="46">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>36</v>
@@ -4764,7 +4764,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="46">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>37</v>
@@ -4785,14 +4785,14 @@
     </row>
     <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="43"/>
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
     </row>
     <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A65" s="32"/>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
@@ -4814,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
@@ -4828,7 +4828,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -4842,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
@@ -4856,7 +4856,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
@@ -4870,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
@@ -4888,14 +4888,14 @@
     </row>
     <row r="72" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A72" s="43"/>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
     </row>
     <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A73" s="32"/>
@@ -4917,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -4931,7 +4931,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -4945,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -4963,14 +4963,14 @@
     </row>
     <row r="78" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A78" s="43"/>
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
     </row>
     <row r="79" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="B79" s="46">
@@ -4990,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
@@ -5067,30 +5067,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="C86">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
@@ -5108,7 +5108,7 @@
   <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D6" sqref="D6:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -5127,16 +5127,16 @@
   <sheetData>
     <row r="1" spans="2:12" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="49"/>
@@ -5146,8 +5146,8 @@
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" ht="17.25">
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="53" t="s">
         <v>16</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="F4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -5165,10 +5165,10 @@
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
@@ -5252,14 +5252,14 @@
       <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
       <c r="H10" s="54"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -5271,7 +5271,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
@@ -5359,14 +5359,14 @@
       <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="54"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -5403,18 +5403,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5443,22 +5443,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:7" ht="17.25">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25">
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="53" t="s">
         <v>16</v>
       </c>
@@ -5468,13 +5468,13 @@
       <c r="F4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
@@ -5509,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="62"/>
@@ -5537,10 +5537,10 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="89"/>
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
@@ -5637,7 +5637,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
@@ -5653,14 +5653,14 @@
       <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
     </row>
     <row r="22" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B22" s="20">
@@ -5728,18 +5728,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
